--- a/result/temp_1102.xlsx
+++ b/result/temp_1102.xlsx
@@ -711,7 +711,11 @@
           <t>dodo@naver.com</t>
         </is>
       </c>
-      <c r="M2" s="7" t="n"/>
+      <c r="M2" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N2" s="9" t="n"/>
     </row>
     <row r="3">
@@ -751,7 +755,11 @@
           <t>qwer123@gmail.com</t>
         </is>
       </c>
-      <c r="M3" s="7" t="n"/>
+      <c r="M3" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N3" s="9" t="n"/>
     </row>
     <row r="4">
@@ -791,7 +799,11 @@
           <t>qwer124@gmail.com</t>
         </is>
       </c>
-      <c r="M4" s="7" t="n"/>
+      <c r="M4" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N4" s="9" t="n"/>
     </row>
     <row r="5">
@@ -831,7 +843,11 @@
           <t>qwer125@gmail.com</t>
         </is>
       </c>
-      <c r="M5" s="7" t="n"/>
+      <c r="M5" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N5" s="9" t="n"/>
     </row>
     <row r="6">
@@ -871,7 +887,11 @@
           <t>abc@naver.com</t>
         </is>
       </c>
-      <c r="M6" s="7" t="n"/>
+      <c r="M6" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N6" s="9" t="n"/>
     </row>
     <row r="7">
@@ -911,7 +931,11 @@
           <t>qwer127@gmail.com</t>
         </is>
       </c>
-      <c r="M7" s="7" t="n"/>
+      <c r="M7" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N7" s="9" t="n"/>
     </row>
     <row r="8">
@@ -951,7 +975,11 @@
           <t>qwer128@gmail.com</t>
         </is>
       </c>
-      <c r="M8" s="7" t="n"/>
+      <c r="M8" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N8" s="9" t="n"/>
     </row>
     <row r="9">
@@ -991,7 +1019,11 @@
           <t>qwer129@gmail.com</t>
         </is>
       </c>
-      <c r="M9" s="7" t="n"/>
+      <c r="M9" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N9" s="9" t="n"/>
     </row>
     <row r="10">
@@ -1031,7 +1063,11 @@
           <t>qwer130@gmail.com</t>
         </is>
       </c>
-      <c r="M10" s="7" t="n"/>
+      <c r="M10" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N10" s="9" t="n"/>
     </row>
     <row r="11">
@@ -1071,7 +1107,11 @@
           <t>qwer131@gmail.com</t>
         </is>
       </c>
-      <c r="M11" s="7" t="n"/>
+      <c r="M11" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N11" s="9" t="n"/>
     </row>
     <row r="12">
@@ -1111,7 +1151,11 @@
           <t>kimkimkim@naver.com</t>
         </is>
       </c>
-      <c r="M12" s="7" t="n"/>
+      <c r="M12" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N12" s="9" t="n"/>
     </row>
     <row r="13">
@@ -1151,7 +1195,11 @@
           <t>qwer133@gmail.com</t>
         </is>
       </c>
-      <c r="M13" s="7" t="n"/>
+      <c r="M13" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N13" s="9" t="n"/>
     </row>
   </sheetData>

--- a/result/temp_1102.xlsx
+++ b/result/temp_1102.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -1201,6 +1201,30 @@
         </is>
       </c>
       <c r="N13" s="9" t="n"/>
+    </row>
+    <row r="14">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>dl_edu_cert@navercorp.com</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>dl_certification@navercorp.com</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D13">

--- a/result/temp_1102.xlsx
+++ b/result/temp_1102.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -706,17 +706,13 @@
       <c r="I2" s="7" t="n"/>
       <c r="J2" s="7" t="n"/>
       <c r="K2" s="7" t="n"/>
-      <c r="L2" s="7" t="inlineStr">
-        <is>
-          <t>dodo@naver.com</t>
-        </is>
-      </c>
-      <c r="M2" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
-      <c r="N2" s="9" t="n"/>
+      <c r="L2" s="7" t="n"/>
+      <c r="M2" s="7" t="n"/>
+      <c r="N2" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/hbt-vsrv-bqz</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="n">
@@ -750,16 +746,8 @@
       <c r="I3" s="7" t="n"/>
       <c r="J3" s="7" t="n"/>
       <c r="K3" s="7" t="n"/>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>qwer123@gmail.com</t>
-        </is>
-      </c>
-      <c r="M3" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L3" s="7" t="n"/>
+      <c r="M3" s="7" t="n"/>
       <c r="N3" s="9" t="n"/>
     </row>
     <row r="4">
@@ -794,16 +782,8 @@
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
       <c r="K4" s="7" t="n"/>
-      <c r="L4" s="7" t="inlineStr">
-        <is>
-          <t>qwer124@gmail.com</t>
-        </is>
-      </c>
-      <c r="M4" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L4" s="7" t="n"/>
+      <c r="M4" s="7" t="n"/>
       <c r="N4" s="9" t="n"/>
     </row>
     <row r="5">
@@ -838,16 +818,8 @@
       <c r="I5" s="7" t="n"/>
       <c r="J5" s="7" t="n"/>
       <c r="K5" s="7" t="n"/>
-      <c r="L5" s="7" t="inlineStr">
-        <is>
-          <t>qwer125@gmail.com</t>
-        </is>
-      </c>
-      <c r="M5" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L5" s="7" t="n"/>
+      <c r="M5" s="7" t="n"/>
       <c r="N5" s="9" t="n"/>
     </row>
     <row r="6">
@@ -882,16 +854,8 @@
       <c r="I6" s="7" t="n"/>
       <c r="J6" s="7" t="n"/>
       <c r="K6" s="7" t="n"/>
-      <c r="L6" s="7" t="inlineStr">
-        <is>
-          <t>abc@naver.com</t>
-        </is>
-      </c>
-      <c r="M6" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L6" s="7" t="n"/>
+      <c r="M6" s="7" t="n"/>
       <c r="N6" s="9" t="n"/>
     </row>
     <row r="7">
@@ -926,16 +890,8 @@
       <c r="I7" s="7" t="n"/>
       <c r="J7" s="7" t="n"/>
       <c r="K7" s="7" t="n"/>
-      <c r="L7" s="7" t="inlineStr">
-        <is>
-          <t>qwer127@gmail.com</t>
-        </is>
-      </c>
-      <c r="M7" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L7" s="7" t="n"/>
+      <c r="M7" s="7" t="n"/>
       <c r="N7" s="9" t="n"/>
     </row>
     <row r="8">
@@ -970,16 +926,8 @@
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
       <c r="K8" s="7" t="n"/>
-      <c r="L8" s="7" t="inlineStr">
-        <is>
-          <t>qwer128@gmail.com</t>
-        </is>
-      </c>
-      <c r="M8" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L8" s="7" t="n"/>
+      <c r="M8" s="7" t="n"/>
       <c r="N8" s="9" t="n"/>
     </row>
     <row r="9">
@@ -1014,16 +962,8 @@
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="n"/>
-      <c r="L9" s="7" t="inlineStr">
-        <is>
-          <t>qwer129@gmail.com</t>
-        </is>
-      </c>
-      <c r="M9" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L9" s="7" t="n"/>
+      <c r="M9" s="7" t="n"/>
       <c r="N9" s="9" t="n"/>
     </row>
     <row r="10">
@@ -1058,16 +998,8 @@
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
       <c r="K10" s="7" t="n"/>
-      <c r="L10" s="7" t="inlineStr">
-        <is>
-          <t>qwer130@gmail.com</t>
-        </is>
-      </c>
-      <c r="M10" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L10" s="7" t="n"/>
+      <c r="M10" s="7" t="n"/>
       <c r="N10" s="9" t="n"/>
     </row>
     <row r="11">
@@ -1102,16 +1034,8 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
       <c r="K11" s="7" t="n"/>
-      <c r="L11" s="7" t="inlineStr">
-        <is>
-          <t>qwer131@gmail.com</t>
-        </is>
-      </c>
-      <c r="M11" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L11" s="7" t="n"/>
+      <c r="M11" s="7" t="n"/>
       <c r="N11" s="9" t="n"/>
     </row>
     <row r="12">
@@ -1146,16 +1070,8 @@
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
       <c r="K12" s="7" t="n"/>
-      <c r="L12" s="7" t="inlineStr">
-        <is>
-          <t>kimkimkim@naver.com</t>
-        </is>
-      </c>
-      <c r="M12" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L12" s="7" t="n"/>
+      <c r="M12" s="7" t="n"/>
       <c r="N12" s="9" t="n"/>
     </row>
     <row r="13">
@@ -1190,41 +1106,9 @@
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
       <c r="K13" s="7" t="n"/>
-      <c r="L13" s="7" t="inlineStr">
-        <is>
-          <t>qwer133@gmail.com</t>
-        </is>
-      </c>
-      <c r="M13" s="7" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="7" t="n"/>
       <c r="N13" s="9" t="n"/>
-    </row>
-    <row r="14">
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>dl_edu_cert@navercorp.com</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>dl_certification@navercorp.com</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>11월 2일</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D13">

--- a/result/temp_1102.xlsx
+++ b/result/temp_1102.xlsx
@@ -710,7 +710,7 @@
       <c r="M2" s="7" t="n"/>
       <c r="N2" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/hbt-vsrv-bqz</t>
+          <t>meet.google.com/tbi-smtm-arz</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,11 @@
       <c r="K3" s="7" t="n"/>
       <c r="L3" s="7" t="n"/>
       <c r="M3" s="7" t="n"/>
-      <c r="N3" s="9" t="n"/>
+      <c r="N3" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/mqt-nwob-edr</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="n">
@@ -784,7 +788,11 @@
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="7" t="n"/>
       <c r="M4" s="7" t="n"/>
-      <c r="N4" s="9" t="n"/>
+      <c r="N4" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/pzo-bbsn-imh</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
@@ -820,7 +828,11 @@
       <c r="K5" s="7" t="n"/>
       <c r="L5" s="7" t="n"/>
       <c r="M5" s="7" t="n"/>
-      <c r="N5" s="9" t="n"/>
+      <c r="N5" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/pfz-bhux-hbj</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
@@ -856,7 +868,11 @@
       <c r="K6" s="7" t="n"/>
       <c r="L6" s="7" t="n"/>
       <c r="M6" s="7" t="n"/>
-      <c r="N6" s="9" t="n"/>
+      <c r="N6" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/uzv-rezg-xdg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
@@ -892,7 +908,11 @@
       <c r="K7" s="7" t="n"/>
       <c r="L7" s="7" t="n"/>
       <c r="M7" s="7" t="n"/>
-      <c r="N7" s="9" t="n"/>
+      <c r="N7" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/kgu-pdfx-ewq</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
@@ -928,7 +948,11 @@
       <c r="K8" s="7" t="n"/>
       <c r="L8" s="7" t="n"/>
       <c r="M8" s="7" t="n"/>
-      <c r="N8" s="9" t="n"/>
+      <c r="N8" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/und-svqb-jor</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
@@ -964,7 +988,11 @@
       <c r="K9" s="7" t="n"/>
       <c r="L9" s="7" t="n"/>
       <c r="M9" s="7" t="n"/>
-      <c r="N9" s="9" t="n"/>
+      <c r="N9" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/yqg-ozzd-yze</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
@@ -1000,7 +1028,11 @@
       <c r="K10" s="7" t="n"/>
       <c r="L10" s="7" t="n"/>
       <c r="M10" s="7" t="n"/>
-      <c r="N10" s="9" t="n"/>
+      <c r="N10" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/sjc-xkrp-eap</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
@@ -1036,7 +1068,11 @@
       <c r="K11" s="7" t="n"/>
       <c r="L11" s="7" t="n"/>
       <c r="M11" s="7" t="n"/>
-      <c r="N11" s="9" t="n"/>
+      <c r="N11" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/xmm-mzst-njy</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
@@ -1072,7 +1108,11 @@
       <c r="K12" s="7" t="n"/>
       <c r="L12" s="7" t="n"/>
       <c r="M12" s="7" t="n"/>
-      <c r="N12" s="9" t="n"/>
+      <c r="N12" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/vqg-bpdc-pru</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
@@ -1108,7 +1148,11 @@
       <c r="K13" s="7" t="n"/>
       <c r="L13" s="7" t="n"/>
       <c r="M13" s="7" t="n"/>
-      <c r="N13" s="9" t="n"/>
+      <c r="N13" s="9" t="inlineStr">
+        <is>
+          <t>meet.google.com/eaf-odpb-juv</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D13">

--- a/result/temp_1102.xlsx
+++ b/result/temp_1102.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -706,11 +706,19 @@
       <c r="I2" s="7" t="n"/>
       <c r="J2" s="7" t="n"/>
       <c r="K2" s="7" t="n"/>
-      <c r="L2" s="7" t="n"/>
-      <c r="M2" s="7" t="n"/>
+      <c r="L2" s="7" t="inlineStr">
+        <is>
+          <t>dodo@naver.com</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N2" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/tbi-smtm-arz</t>
+          <t>meet.google.com/cee-tpty-pgp</t>
         </is>
       </c>
     </row>
@@ -746,11 +754,19 @@
       <c r="I3" s="7" t="n"/>
       <c r="J3" s="7" t="n"/>
       <c r="K3" s="7" t="n"/>
-      <c r="L3" s="7" t="n"/>
-      <c r="M3" s="7" t="n"/>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
+          <t>qwer123@gmail.com</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N3" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/mqt-nwob-edr</t>
+          <t>meet.google.com/zfz-medi-ubj</t>
         </is>
       </c>
     </row>
@@ -786,11 +802,19 @@
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
       <c r="K4" s="7" t="n"/>
-      <c r="L4" s="7" t="n"/>
-      <c r="M4" s="7" t="n"/>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
+          <t>qwer124@gmail.com</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N4" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/pzo-bbsn-imh</t>
+          <t>meet.google.com/tas-bopr-rkt</t>
         </is>
       </c>
     </row>
@@ -826,11 +850,19 @@
       <c r="I5" s="7" t="n"/>
       <c r="J5" s="7" t="n"/>
       <c r="K5" s="7" t="n"/>
-      <c r="L5" s="7" t="n"/>
-      <c r="M5" s="7" t="n"/>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
+          <t>qwer125@gmail.com</t>
+        </is>
+      </c>
+      <c r="M5" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N5" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/pfz-bhux-hbj</t>
+          <t>meet.google.com/cun-wjpf-cvq</t>
         </is>
       </c>
     </row>
@@ -866,11 +898,19 @@
       <c r="I6" s="7" t="n"/>
       <c r="J6" s="7" t="n"/>
       <c r="K6" s="7" t="n"/>
-      <c r="L6" s="7" t="n"/>
-      <c r="M6" s="7" t="n"/>
+      <c r="L6" s="7" t="inlineStr">
+        <is>
+          <t>abc@naver.com</t>
+        </is>
+      </c>
+      <c r="M6" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N6" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/uzv-rezg-xdg</t>
+          <t>meet.google.com/ung-gwwu-sqh</t>
         </is>
       </c>
     </row>
@@ -906,11 +946,19 @@
       <c r="I7" s="7" t="n"/>
       <c r="J7" s="7" t="n"/>
       <c r="K7" s="7" t="n"/>
-      <c r="L7" s="7" t="n"/>
-      <c r="M7" s="7" t="n"/>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
+          <t>qwer127@gmail.com</t>
+        </is>
+      </c>
+      <c r="M7" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N7" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/kgu-pdfx-ewq</t>
+          <t>meet.google.com/ttu-yopu-wwb</t>
         </is>
       </c>
     </row>
@@ -946,11 +994,19 @@
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
       <c r="K8" s="7" t="n"/>
-      <c r="L8" s="7" t="n"/>
-      <c r="M8" s="7" t="n"/>
+      <c r="L8" s="7" t="inlineStr">
+        <is>
+          <t>qwer128@gmail.com</t>
+        </is>
+      </c>
+      <c r="M8" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N8" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/und-svqb-jor</t>
+          <t>meet.google.com/fzt-hwxe-nku</t>
         </is>
       </c>
     </row>
@@ -986,11 +1042,19 @@
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="n"/>
-      <c r="L9" s="7" t="n"/>
-      <c r="M9" s="7" t="n"/>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
+          <t>qwer129@gmail.com</t>
+        </is>
+      </c>
+      <c r="M9" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N9" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/yqg-ozzd-yze</t>
+          <t>meet.google.com/ewr-dqjq-cxt</t>
         </is>
       </c>
     </row>
@@ -1026,11 +1090,19 @@
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
       <c r="K10" s="7" t="n"/>
-      <c r="L10" s="7" t="n"/>
-      <c r="M10" s="7" t="n"/>
+      <c r="L10" s="7" t="inlineStr">
+        <is>
+          <t>qwer130@gmail.com</t>
+        </is>
+      </c>
+      <c r="M10" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N10" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/sjc-xkrp-eap</t>
+          <t>meet.google.com/dgz-vxje-gnv</t>
         </is>
       </c>
     </row>
@@ -1066,11 +1138,19 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
       <c r="K11" s="7" t="n"/>
-      <c r="L11" s="7" t="n"/>
-      <c r="M11" s="7" t="n"/>
+      <c r="L11" s="7" t="inlineStr">
+        <is>
+          <t>qwer131@gmail.com</t>
+        </is>
+      </c>
+      <c r="M11" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N11" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/xmm-mzst-njy</t>
+          <t>meet.google.com/wxc-apdv-iho</t>
         </is>
       </c>
     </row>
@@ -1106,11 +1186,19 @@
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
       <c r="K12" s="7" t="n"/>
-      <c r="L12" s="7" t="n"/>
-      <c r="M12" s="7" t="n"/>
+      <c r="L12" s="7" t="inlineStr">
+        <is>
+          <t>kimkimkim@naver.com</t>
+        </is>
+      </c>
+      <c r="M12" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N12" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/vqg-bpdc-pru</t>
+          <t>meet.google.com/gjf-ggge-mos</t>
         </is>
       </c>
     </row>
@@ -1146,11 +1234,43 @@
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
       <c r="K13" s="7" t="n"/>
-      <c r="L13" s="7" t="n"/>
-      <c r="M13" s="7" t="n"/>
+      <c r="L13" s="7" t="inlineStr">
+        <is>
+          <t>qwer133@gmail.com</t>
+        </is>
+      </c>
+      <c r="M13" s="7" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
       <c r="N13" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/eaf-odpb-juv</t>
+          <t>meet.google.com/gii-ypka-srh</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>dl_edu_cert@navercorp.com</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>dl_certification@navercorp.com</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>11월 2일</t>
         </is>
       </c>
     </row>

--- a/result/temp_1102.xlsx
+++ b/result/temp_1102.xlsx
@@ -718,7 +718,7 @@
       </c>
       <c r="N2" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/cee-tpty-pgp</t>
+          <t>meet.google.com/mpa-zdrp-etp</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="N3" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/zfz-medi-ubj</t>
+          <t>meet.google.com/cxi-ioij-fbc</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="N4" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/tas-bopr-rkt</t>
+          <t>meet.google.com/xsz-ofgp-ccn</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="N5" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/cun-wjpf-cvq</t>
+          <t>meet.google.com/qxe-anan-tik</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="N6" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/ung-gwwu-sqh</t>
+          <t>meet.google.com/ykt-igpi-ozp</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="N7" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/ttu-yopu-wwb</t>
+          <t>meet.google.com/kds-kqtj-urw</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="N8" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/fzt-hwxe-nku</t>
+          <t>meet.google.com/stf-qarz-gyt</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="N9" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/ewr-dqjq-cxt</t>
+          <t>meet.google.com/jyw-xhqa-upe</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="N10" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/dgz-vxje-gnv</t>
+          <t>meet.google.com/ckc-gude-vzb</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="N11" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/wxc-apdv-iho</t>
+          <t>meet.google.com/ied-qkai-rxx</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="N12" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/gjf-ggge-mos</t>
+          <t>meet.google.com/sma-rekg-iov</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="N13" s="9" t="inlineStr">
         <is>
-          <t>meet.google.com/gii-ypka-srh</t>
+          <t>meet.google.com/spn-ywsa-uqk</t>
         </is>
       </c>
     </row>
